--- a/data_excel/48.xlsx
+++ b/data_excel/48.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>王先生</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -501,7 +506,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,7 +656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -659,15 +664,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/48.xlsx
+++ b/data_excel/48.xlsx
@@ -93,9 +93,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,10 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -605,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -668,22 +668,22 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,12 +694,12 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
